--- a/Sales_dashboard_food_delivery.xlsx
+++ b/Sales_dashboard_food_delivery.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Portfolios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373AB739-867B-47F6-A0C7-0418719263AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA1C4D9-90CC-49C9-95E1-B5BA1D1A4329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{7C0C60D5-B747-4A0A-A247-BECD022AA2DB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{7C0C60D5-B747-4A0A-A247-BECD022AA2DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="332">
   <si>
     <t>Date</t>
   </si>
@@ -1056,6 +1056,9 @@
   <si>
     <t>2021</t>
   </si>
+  <si>
+    <t>Values</t>
+  </si>
 </sst>
 </file>
 
@@ -1133,7 +1136,856 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="291">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
@@ -2356,7 +3208,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-441B-44FE-98A9-FF90BF354AB4}"/>
+              <c16:uniqueId val="{00000006-399F-4143-8AA0-8AFFDDEF56A0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2451,7 +3303,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-441B-44FE-98A9-FF90BF354AB4}"/>
+              <c16:uniqueId val="{00000007-399F-4143-8AA0-8AFFDDEF56A0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2546,7 +3398,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-441B-44FE-98A9-FF90BF354AB4}"/>
+              <c16:uniqueId val="{00000008-399F-4143-8AA0-8AFFDDEF56A0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2641,7 +3493,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-441B-44FE-98A9-FF90BF354AB4}"/>
+              <c16:uniqueId val="{00000009-399F-4143-8AA0-8AFFDDEF56A0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3758,9 +4610,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>'top 10 customers'!$A$2:$A$12</c:f>
+              <c:f>'top 10 customers'!$A$2:$A$24</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>C11</c:v>
                 </c:pt>
@@ -3790,16 +4642,52 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>C5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>C4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>C18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>C20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>C19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>C9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>C21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>C13</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>C16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>C14</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>C15</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>C17</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>C0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'top 10 customers'!$B$2:$B$12</c:f>
+              <c:f>'top 10 customers'!$B$2:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>25307.021014131649</c:v>
                 </c:pt>
@@ -3829,6 +4717,42 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>9595.2865157457709</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7573.6894323610541</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6827.0998318466054</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5811.3539164476379</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5763.4853642350026</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5657.9593777693572</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4857.4395425810653</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4541.2756880477118</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3612.8962982929497</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2953.5770475307327</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2813.8211623577581</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2187.880153436523</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>580.8900205139837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6340,9 +7264,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>'top 10 customers'!$A$2:$A$12</c:f>
+              <c:f>'top 10 customers'!$A$2:$A$24</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>C11</c:v>
                 </c:pt>
@@ -6372,16 +7296,52 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>C5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>C4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>C18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>C20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>C19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>C9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>C21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>C13</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>C16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>C14</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>C15</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>C17</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>C0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'top 10 customers'!$B$2:$B$12</c:f>
+              <c:f>'top 10 customers'!$B$2:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>25307.021014131649</c:v>
                 </c:pt>
@@ -6411,6 +7371,42 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>9595.2865157457709</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7573.6894323610541</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6827.0998318466054</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5811.3539164476379</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5763.4853642350026</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5657.9593777693572</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4857.4395425810653</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4541.2756880477118</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3612.8962982929497</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2953.5770475307327</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2813.8211623577581</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2187.880153436523</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>580.8900205139837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9368,10 +10364,7 @@
     <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:sysClr val="windowText" lastClr="000000">
-          <a:lumMod val="25000"/>
-          <a:lumOff val="75000"/>
-        </a:sysClr>
+        <a:srgbClr val="0070C0"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -10834,7 +11827,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2557-4BCD-A474-8083B2B6C208}"/>
+              <c16:uniqueId val="{00000005-C5AE-4917-ABA0-9310CCB911B9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10929,7 +11922,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2557-4BCD-A474-8083B2B6C208}"/>
+              <c16:uniqueId val="{00000006-C5AE-4917-ABA0-9310CCB911B9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11024,7 +12017,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2557-4BCD-A474-8083B2B6C208}"/>
+              <c16:uniqueId val="{00000007-C5AE-4917-ABA0-9310CCB911B9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11119,7 +12112,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2557-4BCD-A474-8083B2B6C208}"/>
+              <c16:uniqueId val="{00000008-C5AE-4917-ABA0-9310CCB911B9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -18814,13 +19807,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>47626</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
@@ -18837,8 +19830,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="47625" y="180974"/>
-          <a:ext cx="4181475" cy="714375"/>
+          <a:off x="47626" y="180974"/>
+          <a:ext cx="4552950" cy="714375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18878,9 +19871,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2676525" cy="666749"/>
     <xdr:sp macro="" textlink="">
@@ -18896,7 +19889,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1276349" y="209550"/>
+          <a:off x="1438274" y="171450"/>
           <a:ext cx="2676525" cy="666749"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18929,7 +19922,7 @@
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
             </a:rPr>
-            <a:t>Food Delivery Sales</a:t>
+            <a:t>Zomato Sales</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="3000" b="1" cap="none" spc="0" baseline="0">
@@ -18940,7 +19933,7 @@
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
             </a:rPr>
-            <a:t> </a:t>
+            <a:t> in Delhi</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="3000" b="1" cap="none" spc="0">
             <a:ln/>
@@ -18960,7 +19953,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
@@ -18998,13 +19991,13 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>523874</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19034,13 +20027,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>533401</xdr:colOff>
+      <xdr:colOff>523876</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
+      <xdr:colOff>542926</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -19077,8 +20070,8 @@
       <xdr:rowOff>152398</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -19503,16 +20496,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>248185</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>101483</xdr:rowOff>
+      <xdr:rowOff>91958</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
+      <xdr:colOff>266701</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>189026</xdr:rowOff>
+      <xdr:rowOff>179501</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -19527,8 +20520,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4515385" y="101483"/>
-          <a:ext cx="7000340" cy="849543"/>
+          <a:off x="4886325" y="91958"/>
+          <a:ext cx="6353176" cy="849543"/>
           <a:chOff x="4429660" y="1301633"/>
           <a:chExt cx="4421356" cy="849543"/>
         </a:xfrm>
@@ -20295,7 +21288,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
@@ -20331,13 +21324,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>9526</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -20369,15 +21362,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
+      <xdr:colOff>295276</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:rowOff>113180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>314326</xdr:colOff>
+      <xdr:colOff>561975</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>162484</xdr:rowOff>
+      <xdr:rowOff>124384</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -20409,114 +21402,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4886326" y="476249"/>
-          <a:ext cx="304800" cy="448235"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>19585</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>72908</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>324385</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>140143</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Graphic 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBAC006D-0442-459C-B799-90C9FEE37442}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId9"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7334785" y="453908"/>
-          <a:ext cx="304800" cy="448235"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>67210</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>63383</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>372010</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>130618</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Graphic 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED36509C-7100-4B67-9C17-325DC0F669E8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId9"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9820810" y="444383"/>
-          <a:ext cx="304800" cy="448235"/>
+          <a:off x="5172076" y="494180"/>
+          <a:ext cx="266699" cy="392204"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20528,17 +21415,17 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>352426</xdr:colOff>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>428626</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp macro="" textlink="Totals!B3">
       <xdr:nvSpPr>
         <xdr:cNvPr id="29" name="TextBox 28">
           <a:extLst>
@@ -20551,8 +21438,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5229226" y="466724"/>
-          <a:ext cx="1295400" cy="447675"/>
+          <a:off x="5457825" y="457199"/>
+          <a:ext cx="1247776" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20583,14 +21470,21 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-IN" sz="2000" b="1"/>
-            <a:t>167968.76 </a:t>
-          </a:r>
+          <a:fld id="{996166BD-A713-4172-8700-84F53A0141C1}" type="TxLink">
+            <a:rPr lang="en-US" sz="1900" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>167968.76</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-IN" sz="1900" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -20599,17 +21493,17 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>342901</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>438151</xdr:colOff>
+      <xdr:colOff>390526</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp macro="" textlink="Totals!B4">
       <xdr:nvSpPr>
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
@@ -20622,8 +21516,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7658101" y="447674"/>
-          <a:ext cx="1314450" cy="447675"/>
+          <a:off x="7696200" y="438149"/>
+          <a:ext cx="1228726" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20654,14 +21548,21 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-IN" sz="2000" b="1"/>
+          <a:fld id="{CEBA54F6-8D0B-4905-BB7B-C838BCA6FBBC}" type="TxLink">
+            <a:rPr lang="en-US" sz="1900" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
             <a:t>213505.49</a:t>
-          </a:r>
+          </a:fld>
+          <a:endParaRPr lang="en-IN" sz="1900" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -20670,17 +21571,17 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>390526</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>485776</xdr:colOff>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp macro="" textlink="Totals!B5">
       <xdr:nvSpPr>
         <xdr:cNvPr id="31" name="TextBox 30">
           <a:extLst>
@@ -20693,8 +21594,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10144126" y="438149"/>
-          <a:ext cx="1314450" cy="447675"/>
+          <a:off x="9991725" y="428624"/>
+          <a:ext cx="1190625" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20725,17 +21626,130 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-IN" sz="2000" b="1"/>
+          <a:fld id="{CC589FDD-2CB7-45AC-88DF-AC60687E91B0}" type="TxLink">
+            <a:rPr lang="en-US" sz="1900" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
             <a:t>45536.74</a:t>
-          </a:r>
+          </a:fld>
+          <a:endParaRPr lang="en-IN" sz="1900" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>103655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114859</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Graphic 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B5033E6-0463-4F8E-9AAF-C68DFF72FDCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId9"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7400926" y="484655"/>
+          <a:ext cx="266699" cy="392204"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>94130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>105334</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Graphic 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F3E6766-6D54-4405-BD68-5D6D886467BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId9"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9686926" y="475130"/>
+          <a:ext cx="266699" cy="392204"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -25706,27 +26720,78 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EF75BA44-AEB8-4C78-B4D7-1E57446FB380}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A2:C3" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EF75BA44-AEB8-4C78-B4D7-1E57446FB380}" name="PivotTable1" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A2:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="9">
+        <item x="7"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="23">
+        <item x="21"/>
+        <item x="0"/>
+        <item x="12"/>
+        <item x="10"/>
+        <item x="13"/>
+        <item x="7"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="3"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="1"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
+  <rowFields count="1">
     <field x="-2"/>
-  </colFields>
-  <colItems count="3">
+  </rowFields>
+  <rowItems count="3">
     <i>
       <x/>
     </i>
@@ -25736,6 +26801,9 @@
     <i i="2">
       <x v="2"/>
     </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
   </colItems>
   <dataFields count="3">
     <dataField name="Sum of  Cost Price" fld="5" baseField="0" baseItem="0"/>
@@ -25743,7 +26811,7 @@
     <dataField name="Sum of Profit" fld="8" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="6">
+    <format dxfId="289">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -25774,8 +26842,46 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="9">
+        <item x="7"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="23">
+        <item x="21"/>
+        <item x="0"/>
+        <item x="12"/>
+        <item x="10"/>
+        <item x="13"/>
+        <item x="7"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="3"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="1"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
@@ -25820,7 +26926,7 @@
     <dataField name="Sum of Selling Price" fld="6" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="5">
+    <format dxfId="288">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -25829,7 +26935,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="287">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -26381,7 +27487,7 @@
     <dataField name="Sum of Selling Price" fld="6" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="3">
+    <format dxfId="286">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -27613,7 +28719,7 @@
     <dataField name="Sum of Profit" fld="8" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="2">
+    <format dxfId="285">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -27702,9 +28808,56 @@
   <location ref="A2:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="9">
+        <item x="7"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="23">
+        <item x="21"/>
+        <item x="0"/>
+        <item x="12"/>
+        <item x="10"/>
+        <item x="13"/>
+        <item x="7"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="3"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="1"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisRow" dataField="1" showAll="0" measureFilter="1" sortType="ascending">
       <items count="265">
         <item x="48"/>
@@ -28118,7 +29271,7 @@
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A22363D9-5431-4E44-8A1D-1DEA3665C95E}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A1:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A1:B24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField numFmtId="14" showAll="0">
       <items count="15">
@@ -28162,7 +29315,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="descending">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="23">
         <item x="21"/>
         <item x="0"/>
@@ -28484,7 +29637,7 @@
   <rowFields count="1">
     <field x="3"/>
   </rowFields>
-  <rowItems count="11">
+  <rowItems count="23">
     <i>
       <x v="3"/>
     </i>
@@ -28515,6 +29668,42 @@
     <i>
       <x v="17"/>
     </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -28526,7 +29715,7 @@
     <dataField name="Sum of Selling Price" fld="6" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="284">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -28560,15 +29749,6 @@
     </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="3" type="count" evalOrder="-1" id="1" iMeasureFld="0">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <top10 val="10" filterVal="10"/>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -29024,7 +30204,7 @@
     <dataField name="Sum of Selling Price" fld="6" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="283">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -29067,6 +30247,9 @@
     <pivotTable tabId="5" name="PivotTable4"/>
     <pivotTable tabId="6" name="PivotTable6"/>
     <pivotTable tabId="7" name="PivotTable7"/>
+    <pivotTable tabId="12" name="PivotTable1"/>
+    <pivotTable tabId="3" name="PivotTable1"/>
+    <pivotTable tabId="15" name="PivotTable1"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1157414322">
@@ -29089,6 +30272,9 @@
     <pivotTable tabId="5" name="PivotTable4"/>
     <pivotTable tabId="6" name="PivotTable6"/>
     <pivotTable tabId="7" name="PivotTable7"/>
+    <pivotTable tabId="12" name="PivotTable1"/>
+    <pivotTable tabId="3" name="PivotTable1"/>
+    <pivotTable tabId="15" name="PivotTable1"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1157414322">
@@ -29114,6 +30300,9 @@
     <pivotTable tabId="5" name="PivotTable4"/>
     <pivotTable tabId="6" name="PivotTable6"/>
     <pivotTable tabId="7" name="PivotTable7"/>
+    <pivotTable tabId="12" name="PivotTable1"/>
+    <pivotTable tabId="3" name="PivotTable1"/>
+    <pivotTable tabId="15" name="PivotTable1"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1157414322" customListSort="0">
@@ -29160,6 +30349,7 @@
     <pivotTable tabId="7" name="PivotTable7"/>
     <pivotTable tabId="12" name="PivotTable1"/>
     <pivotTable tabId="3" name="PivotTable1"/>
+    <pivotTable tabId="15" name="PivotTable1"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1157414322">
@@ -29183,7 +30373,7 @@
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Region" xr10:uid="{82DF7EE8-7A41-4750-8D1C-0C978FE1D67E}" cache="Slicer_Region" caption="Region" style="SlicerStyleLight3" rowHeight="241300"/>
   <slicer name="Delivery person" xr10:uid="{B0454A0C-4CEF-4C94-9F1F-C9FB47443918}" cache="Slicer_Delivery_person" caption="Delivery person" style="SlicerStyleLight3" rowHeight="241300"/>
-  <slicer name="Customer ID" xr10:uid="{E4620578-69C5-4C3B-BBEF-B4727118A9C1}" cache="Slicer_Customer_ID" caption="Customer ID" startItem="16" style="SlicerStyleLight3" rowHeight="241300"/>
+  <slicer name="Customer ID" xr10:uid="{E4620578-69C5-4C3B-BBEF-B4727118A9C1}" cache="Slicer_Customer_ID" caption="Customer ID" style="SlicerStyleLight3" rowHeight="241300"/>
   <slicer name="Years" xr10:uid="{5A9E3997-84F4-4290-8561-75324A6131F4}" cache="Slicer_Years" caption="Years" style="SlicerStyleLight3" rowHeight="241300"/>
 </slicers>
 </file>
@@ -29192,7 +30382,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1721ED8-1246-4B31-9CFF-E90FDDCD5494}" name="Table1" displayName="Table1" ref="A1:G371" totalsRowShown="0">
   <autoFilter ref="A1:G371" xr:uid="{481E2A62-EBA1-470F-95F3-700B965027C6}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{B15A037C-8957-4FD3-A5F9-4D243A44A3A2}" name="Date" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{B15A037C-8957-4FD3-A5F9-4D243A44A3A2}" name="Date" dataDxfId="290"/>
     <tableColumn id="2" xr3:uid="{7B4363BF-E100-40DC-96EC-9F00FE225A2A}" name="Region"/>
     <tableColumn id="3" xr3:uid="{8A50DB05-725D-4B32-99AA-6BB07BAAA6E3}" name="Delivery person"/>
     <tableColumn id="4" xr3:uid="{81B21A15-4E36-40B8-ADD6-135DE7F32CF3}" name="Customer ID"/>
@@ -29503,8 +30693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2DB89A9-D4E3-466A-91D9-CA1481E11232}">
   <dimension ref="A1:M371"/>
   <sheetViews>
-    <sheetView topLeftCell="A350" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38087,8 +39277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B65B21-C7FC-4EBA-A9CA-456882550371}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38111,39 +39301,46 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1633D078-D36E-4B32-8DCA-AE36543ACCC3}">
-  <dimension ref="A2:C3"/>
+  <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="8">
+        <v>167968.7568990305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" s="8">
+        <v>213505.49476710946</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>167968.7568990305</v>
-      </c>
-      <c r="B3" s="8">
-        <v>213505.49476710946</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="B5" s="8">
         <v>45536.737868078955</v>
       </c>
     </row>
@@ -38857,7 +40054,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E1E3FC-A304-486A-9AF6-2A5B4878508F}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
@@ -38959,10 +40156,106 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="6">
+        <v>7573.6894323610541</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="6">
+        <v>6827.0998318466054</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="6">
+        <v>5811.3539164476379</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="6">
+        <v>5763.4853642350026</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="6">
+        <v>5657.9593777693572</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="6">
+        <v>4857.4395425810653</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="6">
+        <v>4541.2756880477118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="6">
+        <v>3612.8962982929497</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="6">
+        <v>2953.5770475307327</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="6">
+        <v>2813.8211623577581</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="6">
+        <v>2187.880153436523</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="6">
+        <v>580.8900205139837</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B12" s="6">
-        <v>160324.1269316891</v>
+      <c r="B24" s="6">
+        <v>213505.49476710949</v>
       </c>
     </row>
   </sheetData>
